--- a/config_6.01/shoping_config_vivo.xlsx
+++ b/config_6.01/shoping_config_vivo.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5144" uniqueCount="1856">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5872,6 +5872,30 @@
   </si>
   <si>
     <t>49800000,1688,</t>
+  </si>
+  <si>
+    <t>海王礼包</t>
+  </si>
+  <si>
+    <t>"500万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>"jing_bi","gun_barrel_13",</t>
+  </si>
+  <si>
+    <t>5000000,2592000</t>
+  </si>
+  <si>
+    <t>2505600,1,0</t>
+  </si>
+  <si>
+    <t>海王礼包至尊版</t>
+  </si>
+  <si>
+    <t>"980万金币","海王炮台(30天)"</t>
+  </si>
+  <si>
+    <t>9800000,2592000</t>
   </si>
   <si>
     <t>id|不能重复</t>
@@ -6770,10 +6794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6808,37 +6832,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6852,13 +6846,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -6867,33 +6854,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6913,9 +6884,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6928,26 +6968,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7037,7 +7061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7049,7 +7091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7061,25 +7109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7091,13 +7127,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7115,13 +7187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7133,61 +7205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7242,45 +7266,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -7316,11 +7301,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7332,10 +7356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7344,139 +7368,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7643,6 +7667,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8052,7 +8079,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1"/>
@@ -8064,7 +8091,7 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -8094,7 +8121,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="60" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -8124,10 +8151,10 @@
       <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -8360,13 +8387,13 @@
       <c r="L2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="57">
+      <c r="O2" s="58">
         <v>1</v>
       </c>
       <c r="P2" s="14">
@@ -8397,10 +8424,10 @@
       <c r="Y2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="58" t="s">
+      <c r="Z2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="58" t="s">
+      <c r="AA2" s="59" t="s">
         <v>63</v>
       </c>
       <c r="AD2" s="12">
@@ -8443,13 +8470,13 @@
       <c r="L3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="63" t="s">
+      <c r="M3" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="58">
         <v>1</v>
       </c>
       <c r="P3" s="14">
@@ -8526,13 +8553,13 @@
       <c r="L4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="57">
+      <c r="O4" s="58">
         <v>1</v>
       </c>
       <c r="P4" s="14">
@@ -8611,13 +8638,13 @@
       <c r="L5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="58">
         <v>1</v>
       </c>
       <c r="P5" s="14">
@@ -8696,13 +8723,13 @@
       <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="M6" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="58">
         <v>1</v>
       </c>
       <c r="P6" s="14">
@@ -8781,7 +8808,7 @@
       <c r="L7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="M7" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="12" t="s">
@@ -8864,13 +8891,13 @@
       <c r="L8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="M8" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="58">
         <v>1</v>
       </c>
       <c r="P8" s="14">
@@ -8949,13 +8976,13 @@
       <c r="L9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="M9" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="58">
         <v>1</v>
       </c>
       <c r="P9" s="14">
@@ -9033,13 +9060,13 @@
       <c r="L10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="M10" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="58">
         <v>1</v>
       </c>
       <c r="P10" s="12">
@@ -9117,7 +9144,7 @@
       <c r="L11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="M11" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="14" t="s">
@@ -9199,7 +9226,7 @@
       <c r="L12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="M12" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N12" s="14" t="s">
@@ -9281,7 +9308,7 @@
       <c r="L13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="14" t="s">
@@ -9363,7 +9390,7 @@
       <c r="L14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M14" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="14" t="s">
@@ -9445,7 +9472,7 @@
       <c r="L15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="64" t="s">
         <v>58</v>
       </c>
       <c r="N15" s="14" t="s">
@@ -9521,7 +9548,7 @@
       <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="59" t="s">
         <v>122</v>
       </c>
       <c r="L16" s="14" t="s">
@@ -9551,7 +9578,7 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="58" t="s">
+      <c r="U16" s="59" t="s">
         <v>123</v>
       </c>
       <c r="V16" s="14">
@@ -9584,7 +9611,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="E17" s="56"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="14" t="s">
@@ -9626,10 +9653,10 @@
       <c r="T17" s="12">
         <v>1</v>
       </c>
-      <c r="U17" s="58" t="s">
+      <c r="U17" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="V17" s="58" t="s">
+      <c r="V17" s="59" t="s">
         <v>127</v>
       </c>
       <c r="X17" s="14" t="s">
@@ -9659,7 +9686,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="E18" s="56"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="14" t="s">
@@ -9701,10 +9728,10 @@
       <c r="T18" s="12">
         <v>2</v>
       </c>
-      <c r="U18" s="58" t="s">
+      <c r="U18" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="V18" s="58" t="s">
+      <c r="V18" s="59" t="s">
         <v>130</v>
       </c>
       <c r="X18" s="14" t="s">
@@ -9734,7 +9761,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="E19" s="56"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="14" t="s">
@@ -9776,10 +9803,10 @@
       <c r="T19" s="12">
         <v>3</v>
       </c>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="V19" s="58" t="s">
+      <c r="V19" s="59" t="s">
         <v>132</v>
       </c>
       <c r="X19" s="14" t="s">
@@ -9809,7 +9836,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="E20" s="56"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="14" t="s">
@@ -9851,10 +9878,10 @@
       <c r="T20" s="12">
         <v>4</v>
       </c>
-      <c r="U20" s="58" t="s">
+      <c r="U20" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="V20" s="58" t="s">
+      <c r="V20" s="59" t="s">
         <v>134</v>
       </c>
       <c r="X20" s="14" t="s">
@@ -9884,7 +9911,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="E21" s="56"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="14" t="s">
@@ -9926,10 +9953,10 @@
       <c r="T21" s="12">
         <v>5</v>
       </c>
-      <c r="U21" s="58" t="s">
+      <c r="U21" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="V21" s="58" t="s">
+      <c r="V21" s="59" t="s">
         <v>136</v>
       </c>
       <c r="X21" s="14" t="s">
@@ -9959,7 +9986,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="14" t="s">
@@ -10001,10 +10028,10 @@
       <c r="T22" s="12">
         <v>6</v>
       </c>
-      <c r="U22" s="58" t="s">
+      <c r="U22" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="V22" s="58" t="s">
+      <c r="V22" s="59" t="s">
         <v>138</v>
       </c>
       <c r="X22" s="14" t="s">
@@ -10034,7 +10061,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="12"/>
-      <c r="E23" s="56"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="14" t="s">
@@ -10076,10 +10103,10 @@
       <c r="T23" s="12">
         <v>7</v>
       </c>
-      <c r="U23" s="58" t="s">
+      <c r="U23" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="V23" s="58" t="s">
+      <c r="V23" s="59" t="s">
         <v>141</v>
       </c>
       <c r="X23" s="14" t="s">
@@ -10114,7 +10141,7 @@
       <c r="D24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="12">
         <v>10189</v>
       </c>
@@ -10130,7 +10157,7 @@
       <c r="J24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="59" t="s">
         <v>142</v>
       </c>
       <c r="L24" s="14" t="s">
@@ -10160,16 +10187,16 @@
       <c r="T24" s="12">
         <v>6</v>
       </c>
-      <c r="U24" s="58" t="s">
+      <c r="U24" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="58" t="s">
+      <c r="V24" s="59" t="s">
         <v>143</v>
       </c>
       <c r="X24" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Y24" s="58" t="s">
+      <c r="Y24" s="59" t="s">
         <v>144</v>
       </c>
       <c r="Z24" s="12" t="s">
@@ -10186,28 +10213,28 @@
       </c>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="56"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="56"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="56"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="56"/>
+      <c r="E32" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10220,14 +10247,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN646"/>
+  <dimension ref="A1:AN648"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AK624" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="J624" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU646" sqref="AU646"/>
+      <selection pane="bottomRight" activeCell="AC660" sqref="AC660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10424,7 +10451,7 @@
       <c r="Q2" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="64" t="s">
+      <c r="R2" s="65" t="s">
         <v>172</v>
       </c>
       <c r="S2" s="32"/>
@@ -10482,7 +10509,7 @@
       <c r="Q3" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="64" t="s">
+      <c r="R3" s="65" t="s">
         <v>175</v>
       </c>
       <c r="S3" s="32"/>
@@ -10540,7 +10567,7 @@
       <c r="Q4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>177</v>
       </c>
       <c r="S4" s="32"/>
@@ -10581,7 +10608,7 @@
       <c r="G5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>179</v>
       </c>
       <c r="K5" s="32"/>
@@ -10603,7 +10630,7 @@
       <c r="Q5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="65" t="s">
         <v>180</v>
       </c>
       <c r="S5" s="32"/>
@@ -10612,7 +10639,7 @@
       <c r="W5" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y5" s="32">
@@ -10722,7 +10749,7 @@
       <c r="Q7" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="65" t="s">
         <v>190</v>
       </c>
       <c r="S7" s="32"/>
@@ -11821,7 +11848,7 @@
       <c r="W26" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X26" s="64" t="s">
+      <c r="X26" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y26" s="21">
@@ -11876,7 +11903,7 @@
       <c r="W27" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X27" s="64" t="s">
+      <c r="X27" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y27" s="21">
@@ -11931,7 +11958,7 @@
       <c r="W28" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X28" s="64" t="s">
+      <c r="X28" s="65" t="s">
         <v>250</v>
       </c>
       <c r="Y28" s="21">
@@ -11986,7 +12013,7 @@
       <c r="W29" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X29" s="64" t="s">
+      <c r="X29" s="65" t="s">
         <v>252</v>
       </c>
       <c r="Y29" s="21">
@@ -12041,7 +12068,7 @@
       <c r="W30" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X30" s="64" t="s">
+      <c r="X30" s="65" t="s">
         <v>254</v>
       </c>
       <c r="Y30" s="21">
@@ -12096,7 +12123,7 @@
       <c r="W31" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X31" s="64" t="s">
+      <c r="X31" s="65" t="s">
         <v>257</v>
       </c>
       <c r="Y31" s="21">
@@ -12151,7 +12178,7 @@
       <c r="W32" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X32" s="64" t="s">
+      <c r="X32" s="65" t="s">
         <v>259</v>
       </c>
       <c r="Y32" s="21">
@@ -12206,7 +12233,7 @@
       <c r="W33" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X33" s="64" t="s">
+      <c r="X33" s="65" t="s">
         <v>261</v>
       </c>
       <c r="Y33" s="21">
@@ -12261,7 +12288,7 @@
       <c r="W34" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X34" s="64" t="s">
+      <c r="X34" s="65" t="s">
         <v>263</v>
       </c>
       <c r="Y34" s="21">
@@ -12316,7 +12343,7 @@
       <c r="W35" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X35" s="64" t="s">
+      <c r="X35" s="65" t="s">
         <v>265</v>
       </c>
       <c r="Y35" s="21">
@@ -12371,7 +12398,7 @@
       <c r="W36" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X36" s="64" t="s">
+      <c r="X36" s="65" t="s">
         <v>267</v>
       </c>
       <c r="Y36" s="21">
@@ -12426,7 +12453,7 @@
       <c r="W37" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X37" s="64" t="s">
+      <c r="X37" s="65" t="s">
         <v>269</v>
       </c>
       <c r="Y37" s="21">
@@ -12481,7 +12508,7 @@
       <c r="W38" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X38" s="64" t="s">
+      <c r="X38" s="65" t="s">
         <v>271</v>
       </c>
       <c r="Y38" s="21">
@@ -12536,7 +12563,7 @@
       <c r="W39" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X39" s="64" t="s">
+      <c r="X39" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y39" s="21">
@@ -12591,7 +12618,7 @@
       <c r="W40" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X40" s="64" t="s">
+      <c r="X40" s="65" t="s">
         <v>275</v>
       </c>
       <c r="Y40" s="21">
@@ -12646,7 +12673,7 @@
       <c r="W41" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X41" s="64" t="s">
+      <c r="X41" s="65" t="s">
         <v>277</v>
       </c>
       <c r="Y41" s="21">
@@ -12701,7 +12728,7 @@
       <c r="W42" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X42" s="64" t="s">
+      <c r="X42" s="65" t="s">
         <v>280</v>
       </c>
       <c r="Y42" s="21">
@@ -12756,7 +12783,7 @@
       <c r="W43" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X43" s="64" t="s">
+      <c r="X43" s="65" t="s">
         <v>282</v>
       </c>
       <c r="Y43" s="21">
@@ -12811,7 +12838,7 @@
       <c r="W44" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X44" s="64" t="s">
+      <c r="X44" s="65" t="s">
         <v>285</v>
       </c>
       <c r="Y44" s="21">
@@ -12866,7 +12893,7 @@
       <c r="W45" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X45" s="64" t="s">
+      <c r="X45" s="65" t="s">
         <v>287</v>
       </c>
       <c r="Y45" s="21">
@@ -12921,7 +12948,7 @@
       <c r="W46" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X46" s="64" t="s">
+      <c r="X46" s="65" t="s">
         <v>289</v>
       </c>
       <c r="Y46" s="21">
@@ -12976,7 +13003,7 @@
       <c r="W47" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X47" s="64" t="s">
+      <c r="X47" s="65" t="s">
         <v>291</v>
       </c>
       <c r="Y47" s="21">
@@ -13031,7 +13058,7 @@
       <c r="W48" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X48" s="64" t="s">
+      <c r="X48" s="65" t="s">
         <v>293</v>
       </c>
       <c r="Y48" s="21">
@@ -13086,7 +13113,7 @@
       <c r="W49" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X49" s="64" t="s">
+      <c r="X49" s="65" t="s">
         <v>296</v>
       </c>
       <c r="Y49" s="21">
@@ -13141,7 +13168,7 @@
       <c r="W50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X50" s="64" t="s">
+      <c r="X50" s="65" t="s">
         <v>298</v>
       </c>
       <c r="Y50" s="21">
@@ -13192,7 +13219,7 @@
       <c r="Q51" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R51" s="64" t="s">
+      <c r="R51" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S51" s="32"/>
@@ -13252,7 +13279,7 @@
       <c r="Q52" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R52" s="64" t="s">
+      <c r="R52" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S52" s="32"/>
@@ -13312,7 +13339,7 @@
       <c r="Q53" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="R53" s="64" t="s">
+      <c r="R53" s="65" t="s">
         <v>301</v>
       </c>
       <c r="S53" s="32"/>
@@ -13605,7 +13632,7 @@
       <c r="W58" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X58" s="64" t="s">
+      <c r="X58" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y58" s="21">
@@ -13660,7 +13687,7 @@
       <c r="W59" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X59" s="64" t="s">
+      <c r="X59" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y59" s="21">
@@ -13715,7 +13742,7 @@
       <c r="W60" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X60" s="64" t="s">
+      <c r="X60" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y60" s="21">
@@ -13770,7 +13797,7 @@
       <c r="W61" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X61" s="64" t="s">
+      <c r="X61" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y61" s="21">
@@ -13825,7 +13852,7 @@
       <c r="W62" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X62" s="64" t="s">
+      <c r="X62" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y62" s="21">
@@ -13880,7 +13907,7 @@
       <c r="W63" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X63" s="64" t="s">
+      <c r="X63" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y63" s="21">
@@ -13935,7 +13962,7 @@
       <c r="W64" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X64" s="64" t="s">
+      <c r="X64" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y64" s="21">
@@ -13990,7 +14017,7 @@
       <c r="W65" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X65" s="64" t="s">
+      <c r="X65" s="65" t="s">
         <v>273</v>
       </c>
       <c r="Y65" s="21">
@@ -14043,7 +14070,7 @@
       <c r="W66" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X66" s="64" t="s">
+      <c r="X66" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y66" s="32">
@@ -14111,7 +14138,7 @@
       <c r="W67" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X67" s="65" t="s">
+      <c r="X67" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y67" s="33">
@@ -14170,7 +14197,7 @@
       <c r="W68" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X68" s="65" t="s">
+      <c r="X68" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y68" s="33">
@@ -14229,7 +14256,7 @@
       <c r="W69" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X69" s="65" t="s">
+      <c r="X69" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y69" s="33">
@@ -14288,7 +14315,7 @@
       <c r="W70" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X70" s="65" t="s">
+      <c r="X70" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y70" s="33">
@@ -14347,7 +14374,7 @@
       <c r="W71" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X71" s="65" t="s">
+      <c r="X71" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y71" s="33">
@@ -14400,7 +14427,7 @@
       <c r="W72" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="X72" s="64" t="s">
+      <c r="X72" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y72" s="32">
@@ -14468,7 +14495,7 @@
       <c r="W73" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X73" s="64" t="s">
+      <c r="X73" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y73" s="32">
@@ -14527,7 +14554,7 @@
       <c r="W74" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X74" s="64" t="s">
+      <c r="X74" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y74" s="32">
@@ -14586,7 +14613,7 @@
       <c r="W75" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X75" s="64" t="s">
+      <c r="X75" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y75" s="32">
@@ -14645,7 +14672,7 @@
       <c r="W76" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X76" s="64" t="s">
+      <c r="X76" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y76" s="32">
@@ -14701,7 +14728,7 @@
       <c r="W77" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X77" s="66" t="s">
+      <c r="X77" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y77" s="35">
@@ -14766,7 +14793,7 @@
       <c r="W78" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X78" s="66" t="s">
+      <c r="X78" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y78" s="35">
@@ -14831,7 +14858,7 @@
       <c r="W79" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X79" s="64" t="s">
+      <c r="X79" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y79" s="32">
@@ -14896,7 +14923,7 @@
       <c r="W80" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X80" s="64" t="s">
+      <c r="X80" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y80" s="32">
@@ -14964,7 +14991,7 @@
       <c r="W81" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="X81" s="66" t="s">
+      <c r="X81" s="67" t="s">
         <v>182</v>
       </c>
       <c r="Y81" s="35">
@@ -15029,7 +15056,7 @@
       <c r="W82" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="X82" s="64" t="s">
+      <c r="X82" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y82" s="32">
@@ -15197,7 +15224,7 @@
       <c r="W85" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="X85" s="64" t="s">
+      <c r="X85" s="65" t="s">
         <v>248</v>
       </c>
       <c r="Y85" s="21">
@@ -15692,7 +15719,7 @@
       <c r="W94" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X94" s="65" t="s">
+      <c r="X94" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y94" s="23">
@@ -17729,7 +17756,7 @@
       <c r="W128" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X128" s="65" t="s">
+      <c r="X128" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y128" s="33">
@@ -17788,7 +17815,7 @@
       <c r="W129" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X129" s="65" t="s">
+      <c r="X129" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y129" s="33">
@@ -27091,7 +27118,7 @@
       <c r="W273" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X273" s="65" t="s">
+      <c r="X273" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y273" s="33">
@@ -36511,7 +36538,7 @@
       <c r="W414" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="X414" s="65" t="s">
+      <c r="X414" s="66" t="s">
         <v>182</v>
       </c>
       <c r="Y414" s="33">
@@ -36570,7 +36597,7 @@
       <c r="W415" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X415" s="64" t="s">
+      <c r="X415" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y415" s="21">
@@ -36638,7 +36665,7 @@
       <c r="W416" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X416" s="64" t="s">
+      <c r="X416" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y416" s="21">
@@ -36706,7 +36733,7 @@
       <c r="W417" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X417" s="64" t="s">
+      <c r="X417" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y417" s="21">
@@ -36774,7 +36801,7 @@
       <c r="W418" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X418" s="64" t="s">
+      <c r="X418" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y418" s="21">
@@ -36842,7 +36869,7 @@
       <c r="W419" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X419" s="64" t="s">
+      <c r="X419" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y419" s="21">
@@ -36910,7 +36937,7 @@
       <c r="W420" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="X420" s="64" t="s">
+      <c r="X420" s="65" t="s">
         <v>182</v>
       </c>
       <c r="Y420" s="21">
@@ -42711,7 +42738,7 @@
       <c r="W509" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X509" s="67" t="s">
+      <c r="X509" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y509" s="49">
@@ -42771,7 +42798,7 @@
       <c r="W510" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X510" s="67" t="s">
+      <c r="X510" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y510" s="49">
@@ -42831,7 +42858,7 @@
       <c r="W511" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="X511" s="67" t="s">
+      <c r="X511" s="68" t="s">
         <v>182</v>
       </c>
       <c r="Y511" s="49">
@@ -51041,14 +51068,12 @@
       <c r="G635" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H635" s="29"/>
       <c r="I635" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J635" s="29" t="s">
         <v>1625</v>
       </c>
-      <c r="K635" s="29"/>
       <c r="L635" s="28">
         <v>-31</v>
       </c>
@@ -51070,7 +51095,6 @@
       <c r="R635" s="53" t="s">
         <v>1627</v>
       </c>
-      <c r="S635" s="29"/>
       <c r="W635" s="28" t="s">
         <v>481</v>
       </c>
@@ -51086,7 +51110,6 @@
       <c r="AA635" s="29">
         <v>80</v>
       </c>
-      <c r="AB635" s="29"/>
       <c r="AH635" s="29">
         <v>1</v>
       </c>
@@ -51113,14 +51136,12 @@
       <c r="G636" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H636" s="29"/>
       <c r="I636" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J636" s="29" t="s">
         <v>1628</v>
       </c>
-      <c r="K636" s="29"/>
       <c r="L636" s="28">
         <v>-31</v>
       </c>
@@ -51142,7 +51163,6 @@
       <c r="R636" s="53" t="s">
         <v>1629</v>
       </c>
-      <c r="S636" s="29"/>
       <c r="W636" s="28" t="s">
         <v>481</v>
       </c>
@@ -51158,7 +51178,6 @@
       <c r="AA636" s="29">
         <v>80</v>
       </c>
-      <c r="AB636" s="29"/>
       <c r="AH636" s="29">
         <v>1</v>
       </c>
@@ -51185,14 +51204,12 @@
       <c r="G637" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H637" s="29"/>
       <c r="I637" s="28" t="s">
         <v>1546</v>
       </c>
       <c r="J637" s="29" t="s">
         <v>1630</v>
       </c>
-      <c r="K637" s="29"/>
       <c r="L637" s="28">
         <v>-31</v>
       </c>
@@ -51214,7 +51231,6 @@
       <c r="R637" s="53" t="s">
         <v>1631</v>
       </c>
-      <c r="S637" s="29"/>
       <c r="W637" s="28" t="s">
         <v>481</v>
       </c>
@@ -51230,7 +51246,6 @@
       <c r="AA637" s="29">
         <v>80</v>
       </c>
-      <c r="AB637" s="29"/>
       <c r="AH637" s="29">
         <v>1</v>
       </c>
@@ -51257,14 +51272,12 @@
       <c r="G638" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H638" s="29"/>
       <c r="I638" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J638" s="29" t="s">
         <v>1632</v>
       </c>
-      <c r="K638" s="29"/>
       <c r="L638" s="28">
         <v>-31</v>
       </c>
@@ -51286,7 +51299,6 @@
       <c r="R638" s="53" t="s">
         <v>1633</v>
       </c>
-      <c r="S638" s="29"/>
       <c r="W638" s="28" t="s">
         <v>481</v>
       </c>
@@ -51302,7 +51314,6 @@
       <c r="AA638" s="29">
         <v>81</v>
       </c>
-      <c r="AB638" s="29"/>
       <c r="AH638" s="29">
         <v>1</v>
       </c>
@@ -51329,14 +51340,12 @@
       <c r="G639" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H639" s="29"/>
       <c r="I639" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J639" s="29" t="s">
         <v>1634</v>
       </c>
-      <c r="K639" s="29"/>
       <c r="L639" s="28">
         <v>-31</v>
       </c>
@@ -51358,7 +51367,6 @@
       <c r="R639" s="53" t="s">
         <v>1635</v>
       </c>
-      <c r="S639" s="29"/>
       <c r="W639" s="28" t="s">
         <v>481</v>
       </c>
@@ -51374,7 +51382,6 @@
       <c r="AA639" s="29">
         <v>81</v>
       </c>
-      <c r="AB639" s="29"/>
       <c r="AH639" s="29">
         <v>1</v>
       </c>
@@ -51401,14 +51408,12 @@
       <c r="G640" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H640" s="29"/>
       <c r="I640" s="28" t="s">
         <v>1553</v>
       </c>
       <c r="J640" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K640" s="29"/>
       <c r="L640" s="28">
         <v>-31</v>
       </c>
@@ -51430,7 +51435,6 @@
       <c r="R640" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S640" s="29"/>
       <c r="W640" s="28" t="s">
         <v>481</v>
       </c>
@@ -51446,7 +51450,6 @@
       <c r="AA640" s="29">
         <v>81</v>
       </c>
-      <c r="AB640" s="29"/>
       <c r="AH640" s="29">
         <v>1</v>
       </c>
@@ -51473,14 +51476,12 @@
       <c r="G641" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H641" s="29"/>
       <c r="I641" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J641" s="29" t="s">
         <v>1636</v>
       </c>
-      <c r="K641" s="29"/>
       <c r="L641" s="28">
         <v>-31</v>
       </c>
@@ -51502,7 +51503,6 @@
       <c r="R641" s="53" t="s">
         <v>1637</v>
       </c>
-      <c r="S641" s="29"/>
       <c r="W641" s="28" t="s">
         <v>481</v>
       </c>
@@ -51518,7 +51518,6 @@
       <c r="AA641" s="29">
         <v>82</v>
       </c>
-      <c r="AB641" s="29"/>
       <c r="AH641" s="29">
         <v>1</v>
       </c>
@@ -51545,14 +51544,12 @@
       <c r="G642" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H642" s="29"/>
       <c r="I642" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J642" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K642" s="29"/>
       <c r="L642" s="28">
         <v>-31</v>
       </c>
@@ -51574,7 +51571,6 @@
       <c r="R642" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S642" s="29"/>
       <c r="W642" s="28" t="s">
         <v>481</v>
       </c>
@@ -51590,7 +51586,6 @@
       <c r="AA642" s="29">
         <v>82</v>
       </c>
-      <c r="AB642" s="29"/>
       <c r="AH642" s="29">
         <v>1</v>
       </c>
@@ -51617,14 +51612,12 @@
       <c r="G643" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H643" s="29"/>
       <c r="I643" s="28" t="s">
         <v>1560</v>
       </c>
       <c r="J643" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K643" s="29"/>
       <c r="L643" s="28">
         <v>-31</v>
       </c>
@@ -51646,7 +51639,6 @@
       <c r="R643" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S643" s="29"/>
       <c r="W643" s="28" t="s">
         <v>481</v>
       </c>
@@ -51662,7 +51654,6 @@
       <c r="AA643" s="29">
         <v>82</v>
       </c>
-      <c r="AB643" s="29"/>
       <c r="AH643" s="29">
         <v>1</v>
       </c>
@@ -51689,14 +51680,12 @@
       <c r="G644" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H644" s="29"/>
       <c r="I644" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J644" s="29" t="s">
         <v>1638</v>
       </c>
-      <c r="K644" s="29"/>
       <c r="L644" s="28">
         <v>-31</v>
       </c>
@@ -51718,7 +51707,6 @@
       <c r="R644" s="53" t="s">
         <v>1639</v>
       </c>
-      <c r="S644" s="29"/>
       <c r="W644" s="28" t="s">
         <v>481</v>
       </c>
@@ -51734,7 +51722,6 @@
       <c r="AA644" s="29">
         <v>83</v>
       </c>
-      <c r="AB644" s="29"/>
       <c r="AH644" s="29">
         <v>1</v>
       </c>
@@ -51761,14 +51748,12 @@
       <c r="G645" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H645" s="29"/>
       <c r="I645" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J645" s="29" t="s">
         <v>1640</v>
       </c>
-      <c r="K645" s="29"/>
       <c r="L645" s="28">
         <v>-31</v>
       </c>
@@ -51790,7 +51775,6 @@
       <c r="R645" s="53" t="s">
         <v>1641</v>
       </c>
-      <c r="S645" s="29"/>
       <c r="W645" s="28" t="s">
         <v>481</v>
       </c>
@@ -51806,7 +51790,6 @@
       <c r="AA645" s="29">
         <v>83</v>
       </c>
-      <c r="AB645" s="29"/>
       <c r="AH645" s="29">
         <v>1</v>
       </c>
@@ -51833,14 +51816,12 @@
       <c r="G646" s="29" t="s">
         <v>1624</v>
       </c>
-      <c r="H646" s="29"/>
       <c r="I646" s="28" t="s">
         <v>1449</v>
       </c>
       <c r="J646" s="29" t="s">
         <v>1642</v>
       </c>
-      <c r="K646" s="29"/>
       <c r="L646" s="28">
         <v>-31</v>
       </c>
@@ -51862,7 +51843,6 @@
       <c r="R646" s="53" t="s">
         <v>1643</v>
       </c>
-      <c r="S646" s="29"/>
       <c r="W646" s="28" t="s">
         <v>481</v>
       </c>
@@ -51878,7 +51858,6 @@
       <c r="AA646" s="29">
         <v>83</v>
       </c>
-      <c r="AB646" s="29"/>
       <c r="AH646" s="29">
         <v>1</v>
       </c>
@@ -51889,6 +51868,130 @@
         <v>1</v>
       </c>
       <c r="AM646" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" s="24" customFormat="1" spans="1:39">
+      <c r="A647" s="24">
+        <v>646</v>
+      </c>
+      <c r="B647" s="24">
+        <v>10563</v>
+      </c>
+      <c r="F647" s="24">
+        <v>1</v>
+      </c>
+      <c r="G647" s="24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J647" s="24" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L647" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M647" s="24">
+        <v>0</v>
+      </c>
+      <c r="N647" s="24">
+        <v>0</v>
+      </c>
+      <c r="O647" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P647" s="24">
+        <v>19800</v>
+      </c>
+      <c r="Q647" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R647" s="56" t="s">
+        <v>1647</v>
+      </c>
+      <c r="W647" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X647" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y647" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z647" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL647" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM647" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" s="24" customFormat="1" spans="1:39">
+      <c r="A648" s="24">
+        <v>647</v>
+      </c>
+      <c r="B648" s="24">
+        <v>10564</v>
+      </c>
+      <c r="F648" s="24">
+        <v>1</v>
+      </c>
+      <c r="G648" s="24" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J648" s="24" t="s">
+        <v>1650</v>
+      </c>
+      <c r="L648" s="24">
+        <v>-31</v>
+      </c>
+      <c r="M648" s="24">
+        <v>0</v>
+      </c>
+      <c r="N648" s="24">
+        <v>0</v>
+      </c>
+      <c r="O648" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="P648" s="24">
+        <v>69800</v>
+      </c>
+      <c r="Q648" s="24" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R648" s="56" t="s">
+        <v>1651</v>
+      </c>
+      <c r="W648" s="24" t="s">
+        <v>1648</v>
+      </c>
+      <c r="X648" s="24">
+        <v>99999999</v>
+      </c>
+      <c r="Y648" s="24">
+        <v>1620576000</v>
+      </c>
+      <c r="Z648" s="24">
+        <v>2552233600</v>
+      </c>
+      <c r="AH648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL648" s="24">
+        <v>1</v>
+      </c>
+      <c r="AM648" s="24">
         <v>1</v>
       </c>
     </row>
@@ -51918,19 +52021,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="58.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1647</v>
+        <v>1655</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1648</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="2" ht="57.75" customHeight="1" spans="1:5">
@@ -51938,7 +52041,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1649</v>
+        <v>1657</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -51947,7 +52050,7 @@
         <v>3600</v>
       </c>
       <c r="E2" t="s">
-        <v>1650</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="3" ht="78.75" customHeight="1" spans="1:4">
@@ -51955,7 +52058,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1651</v>
+        <v>1659</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -51969,7 +52072,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1652</v>
+        <v>1660</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -51983,7 +52086,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>1653</v>
+        <v>1661</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -51997,7 +52100,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -52011,7 +52114,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -52025,7 +52128,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1656</v>
+        <v>1664</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -52039,7 +52142,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1657</v>
+        <v>1665</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -52053,7 +52156,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1658</v>
+        <v>1666</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -52067,7 +52170,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -52081,7 +52184,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1654</v>
+        <v>1662</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -52095,7 +52198,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1655</v>
+        <v>1663</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -52109,7 +52212,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1660</v>
+        <v>1668</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -52123,7 +52226,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1661</v>
+        <v>1669</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -52137,7 +52240,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1662</v>
+        <v>1670</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -52151,7 +52254,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>1663</v>
+        <v>1671</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -52165,7 +52268,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>1664</v>
+        <v>1672</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -52179,7 +52282,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>1665</v>
+        <v>1673</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -52193,7 +52296,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1666</v>
+        <v>1674</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -52207,7 +52310,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -52221,7 +52324,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -52235,7 +52338,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1669</v>
+        <v>1677</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -52249,7 +52352,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1670</v>
+        <v>1678</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -52263,7 +52366,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1671</v>
+        <v>1679</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -52277,7 +52380,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1672</v>
+        <v>1680</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -52291,7 +52394,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1673</v>
+        <v>1681</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
@@ -52305,7 +52408,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1674</v>
+        <v>1682</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -52319,7 +52422,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1675</v>
+        <v>1683</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -52333,7 +52436,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -52347,7 +52450,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1677</v>
+        <v>1685</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -52361,7 +52464,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1678</v>
+        <v>1686</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -52375,7 +52478,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1679</v>
+        <v>1687</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -52389,7 +52492,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1680</v>
+        <v>1688</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
@@ -52403,7 +52506,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1681</v>
+        <v>1689</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -52417,7 +52520,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -52431,7 +52534,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1683</v>
+        <v>1691</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -52445,7 +52548,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1684</v>
+        <v>1692</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -52459,7 +52562,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1685</v>
+        <v>1693</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -52473,7 +52576,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1686</v>
+        <v>1694</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -52487,7 +52590,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1687</v>
+        <v>1695</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -52501,7 +52604,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -52515,7 +52618,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1689</v>
+        <v>1697</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -52529,7 +52632,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1690</v>
+        <v>1698</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -52543,7 +52646,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1691</v>
+        <v>1699</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -52557,7 +52660,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1692</v>
+        <v>1700</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -52571,7 +52674,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1693</v>
+        <v>1701</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -52585,7 +52688,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1694</v>
+        <v>1702</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -52599,7 +52702,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1695</v>
+        <v>1703</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -52613,7 +52716,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1696</v>
+        <v>1704</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -52627,7 +52730,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1697</v>
+        <v>1705</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
@@ -52641,7 +52744,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1698</v>
+        <v>1706</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -52655,7 +52758,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1699</v>
+        <v>1707</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -52669,7 +52772,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1700</v>
+        <v>1708</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
@@ -52683,7 +52786,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="C55" s="2">
         <v>1</v>
@@ -52697,7 +52800,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1702</v>
+        <v>1710</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
@@ -52711,7 +52814,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1703</v>
+        <v>1711</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -52725,7 +52828,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -52739,7 +52842,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1705</v>
+        <v>1713</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -52753,7 +52856,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1706</v>
+        <v>1714</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -52767,7 +52870,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1707</v>
+        <v>1715</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -52781,7 +52884,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1708</v>
+        <v>1716</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -52795,7 +52898,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -52809,7 +52912,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1710</v>
+        <v>1718</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -52823,7 +52926,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1711</v>
+        <v>1719</v>
       </c>
       <c r="C65" s="2">
         <v>1</v>
@@ -52837,7 +52940,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1712</v>
+        <v>1720</v>
       </c>
       <c r="C66" s="2">
         <v>1</v>
@@ -52851,7 +52954,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1713</v>
+        <v>1721</v>
       </c>
       <c r="C67" s="2">
         <v>1</v>
@@ -52865,7 +52968,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -52879,7 +52982,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1715</v>
+        <v>1723</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -52893,7 +52996,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1716</v>
+        <v>1724</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -52907,7 +53010,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>1717</v>
+        <v>1725</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
@@ -52921,7 +53024,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>1718</v>
+        <v>1726</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
@@ -52935,7 +53038,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>1719</v>
+        <v>1727</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
@@ -52949,7 +53052,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>1720</v>
+        <v>1728</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
@@ -52963,7 +53066,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>1721</v>
+        <v>1729</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
@@ -52977,7 +53080,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>1722</v>
+        <v>1730</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
@@ -52991,7 +53094,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>1723</v>
+        <v>1731</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
@@ -53005,7 +53108,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
@@ -53019,7 +53122,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
@@ -53033,7 +53136,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>1726</v>
+        <v>1734</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
@@ -53047,7 +53150,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>1727</v>
+        <v>1735</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -53061,7 +53164,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>1728</v>
+        <v>1736</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -53075,7 +53178,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>1729</v>
+        <v>1737</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -53089,7 +53192,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>1730</v>
+        <v>1738</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -53103,7 +53206,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>1731</v>
+        <v>1739</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -53155,7 +53258,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="90" customHeight="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>1732</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
@@ -53167,19 +53270,19 @@
         <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1733</v>
+        <v>1741</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1736</v>
+        <v>1744</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1737</v>
+        <v>1745</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>31</v>
@@ -53194,7 +53297,7 @@
         <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1738</v>
+        <v>1746</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>39</v>
@@ -53239,7 +53342,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1739</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="1" spans="1:26">
@@ -53259,7 +53362,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G2" s="12">
         <v>480</v>
@@ -53286,22 +53389,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>1741</v>
+        <v>1749</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y2" s="12">
         <v>1</v>
@@ -53327,7 +53430,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G3" s="12">
         <v>1200</v>
@@ -53357,19 +53460,19 @@
         <v>127</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y3" s="12">
         <v>1</v>
@@ -53395,7 +53498,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G4" s="12">
         <v>2400</v>
@@ -53422,22 +53525,22 @@
         <v>5</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>1748</v>
+        <v>1756</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>70</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y4" s="12">
         <v>1</v>
@@ -53463,7 +53566,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G5" s="12">
         <v>4000</v>
@@ -53490,22 +53593,22 @@
         <v>6</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S5" s="15" t="s">
         <v>1751</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>1752</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>1743</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
       <c r="U5" s="15" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V5" s="12" t="s">
         <v>1753</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>1745</v>
       </c>
       <c r="Y5" s="12">
         <v>1</v>
@@ -53531,7 +53634,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G6" s="12">
         <v>7840</v>
@@ -53558,22 +53661,22 @@
         <v>7</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>1754</v>
+        <v>1762</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>1755</v>
+        <v>1763</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y6" s="12">
         <v>1</v>
@@ -53599,7 +53702,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G7" s="12">
         <v>39840</v>
@@ -53626,22 +53729,22 @@
         <v>9</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>1757</v>
+        <v>1765</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>1758</v>
+        <v>1766</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>1759</v>
+        <v>1767</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y7" s="12">
         <v>1</v>
@@ -53664,7 +53767,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G8" s="12">
         <v>120</v>
@@ -53691,22 +53794,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>1760</v>
+        <v>1768</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="S8" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y8" s="12">
         <v>1</v>
@@ -53730,7 +53833,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G9" s="13">
         <v>5000</v>
@@ -53758,10 +53861,10 @@
         <v>2</v>
       </c>
       <c r="P9" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -53769,10 +53872,10 @@
         <v>5000</v>
       </c>
       <c r="U9" s="13" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V9" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -53785,7 +53888,7 @@
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="16" t="s">
-        <v>1765</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" spans="1:29">
@@ -53803,7 +53906,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G10" s="13">
         <v>1000</v>
@@ -53831,10 +53934,10 @@
         <v>1</v>
       </c>
       <c r="P10" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -53842,10 +53945,10 @@
         <v>1000</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -53858,7 +53961,7 @@
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="16" t="s">
-        <v>1768</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" spans="1:26">
@@ -53875,7 +53978,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G11" s="12">
         <v>1200</v>
@@ -53905,19 +54008,19 @@
         <v>127</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>1746</v>
+        <v>1754</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>66</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y11" s="12">
         <v>1</v>
@@ -53943,7 +54046,7 @@
         <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G12" s="12">
         <v>120000</v>
@@ -53970,22 +54073,22 @@
         <v>9</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>1769</v>
+        <v>1777</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>1770</v>
+        <v>1778</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T12" s="12" t="s">
         <v>86</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y12" s="12">
         <v>1</v>
@@ -54011,7 +54114,7 @@
         <v>108</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G13" s="12">
         <v>79840</v>
@@ -54038,22 +54141,22 @@
         <v>10</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>1772</v>
+        <v>1780</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>1773</v>
+        <v>1781</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>1771</v>
+        <v>1779</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y13" s="12">
         <v>1</v>
@@ -54079,7 +54182,7 @@
         <v>110</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G14" s="12">
         <v>199840</v>
@@ -54106,22 +54209,22 @@
         <v>11</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>1775</v>
+        <v>1783</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>1777</v>
+        <v>1785</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>1778</v>
+        <v>1786</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y14" s="12">
         <v>1</v>
@@ -54145,7 +54248,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G15" s="13">
         <v>100</v>
@@ -54175,10 +54278,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R15" s="13"/>
       <c r="S15" s="16"/>
@@ -54186,10 +54289,10 @@
         <v>100</v>
       </c>
       <c r="U15" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V15" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
@@ -54202,7 +54305,7 @@
       <c r="AA15" s="13"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="16" s="12" customFormat="1" spans="1:26">
@@ -54222,7 +54325,7 @@
         <v>101</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G16" s="12">
         <v>2000</v>
@@ -54249,23 +54352,23 @@
         <v>3</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="U16" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -54290,7 +54393,7 @@
         <v>102</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G17" s="12">
         <v>6700</v>
@@ -54317,23 +54420,23 @@
         <v>4</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -54358,7 +54461,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G18" s="12">
         <v>13200</v>
@@ -54385,23 +54488,23 @@
         <v>5</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>1788</v>
+        <v>1796</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>109</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>1756</v>
+        <v>1764</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -54426,7 +54529,7 @@
         <v>104</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G19" s="12">
         <v>20400</v>
@@ -54453,23 +54556,23 @@
         <v>6</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>1790</v>
+        <v>1798</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="U19" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -54494,7 +54597,7 @@
         <v>105</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G20" s="12">
         <v>66</v>
@@ -54521,22 +54624,22 @@
         <v>7</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>1792</v>
+        <v>1800</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>1793</v>
+        <v>1801</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>120</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
@@ -54560,7 +54663,7 @@
         <v>101</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G21" s="12">
         <v>200</v>
@@ -54591,20 +54694,20 @@
         <v>890</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>1794</v>
+        <v>1802</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T21" s="12" t="s">
         <v>124</v>
       </c>
       <c r="U21" s="15" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
@@ -54633,7 +54736,7 @@
         <v>104</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G22" s="13">
         <v>5000</v>
@@ -54661,10 +54764,10 @@
         <v>2</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>1763</v>
+        <v>1771</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>1764</v>
+        <v>1772</v>
       </c>
       <c r="R22" s="13"/>
       <c r="S22" s="16"/>
@@ -54672,10 +54775,10 @@
         <v>5000</v>
       </c>
       <c r="U22" s="16" t="s">
+        <v>1761</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>1753</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>1745</v>
       </c>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
@@ -54704,7 +54807,7 @@
         <v>102</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G23" s="13">
         <v>1000</v>
@@ -54732,10 +54835,10 @@
         <v>1</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>1766</v>
+        <v>1774</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>1767</v>
+        <v>1775</v>
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="16"/>
@@ -54743,10 +54846,10 @@
         <v>1000</v>
       </c>
       <c r="U23" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V23" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
@@ -54768,14 +54871,14 @@
         <v>109</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>1795</v>
+        <v>1803</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
         <v>101</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="G24" s="13">
         <v>100</v>
@@ -54805,10 +54908,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="16" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="R24" s="13"/>
       <c r="S24" s="16"/>
@@ -54816,10 +54919,10 @@
         <v>100</v>
       </c>
       <c r="U24" s="16" t="s">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="V24" s="13" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
@@ -54832,7 +54935,7 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="13"/>
       <c r="AC24" s="16" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="25" s="12" customFormat="1" spans="1:26">
@@ -54852,7 +54955,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="G25" s="12">
         <v>15840</v>
@@ -54879,22 +54982,22 @@
         <v>8</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>1796</v>
+        <v>1804</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>1797</v>
+        <v>1805</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>1743</v>
+        <v>1751</v>
       </c>
       <c r="T25" s="15" t="s">
-        <v>1798</v>
+        <v>1806</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="Y25" s="12">
         <v>1</v>
@@ -54957,13 +55060,13 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1734</v>
+        <v>1742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1735</v>
+        <v>1743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -54975,16 +55078,16 @@
         <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1800</v>
+        <v>1808</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1801</v>
+        <v>1809</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1803</v>
+        <v>1811</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>38</v>
@@ -55025,7 +55128,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
@@ -55037,7 +55140,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L2" s="2">
         <v>54</v>
@@ -55046,7 +55149,7 @@
         <v>999999</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1806</v>
+        <v>1814</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
@@ -55055,22 +55158,22 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>1808</v>
+        <v>1816</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T2" s="2">
         <v>60000</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:23">
@@ -55081,7 +55184,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
@@ -55093,7 +55196,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>1805</v>
+        <v>1813</v>
       </c>
       <c r="L3" s="2">
         <v>54</v>
@@ -55102,7 +55205,7 @@
         <v>999999</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -55111,22 +55214,22 @@
         <v>2</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>1807</v>
+        <v>1815</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T3" s="2">
         <v>500000</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W3" s="2">
         <v>8.3</v>
@@ -55140,7 +55243,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1813</v>
+        <v>1821</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>14</v>
@@ -55151,7 +55254,7 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="69" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="5">
@@ -55165,19 +55268,19 @@
         <v>4</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>1815</v>
+        <v>1823</v>
       </c>
       <c r="T4" s="2">
         <v>15000</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:22">
@@ -55188,7 +55291,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1817</v>
+        <v>1825</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -55199,7 +55302,7 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L5" s="2">
@@ -55215,10 +55318,10 @@
         <v>100000</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:22">
@@ -55229,7 +55332,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1819</v>
+        <v>1827</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -55240,7 +55343,7 @@
       <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="69" t="s">
         <v>57</v>
       </c>
       <c r="L6" s="2">
@@ -55256,10 +55359,10 @@
         <v>100000</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>1818</v>
+        <v>1826</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:23">
@@ -55270,7 +55373,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1804</v>
+        <v>1812</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -55282,7 +55385,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>1820</v>
+        <v>1828</v>
       </c>
       <c r="L7" s="2">
         <v>56</v>
@@ -55291,7 +55394,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>1811</v>
+        <v>1819</v>
       </c>
       <c r="O7" s="6">
         <v>0</v>
@@ -55300,22 +55403,22 @@
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T7" s="2">
         <v>500000</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W7" s="2">
         <v>8.3</v>
@@ -55329,10 +55432,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>1823</v>
+        <v>1831</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F8" s="2">
         <v>100</v>
@@ -55344,7 +55447,7 @@
         <v>125</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1824</v>
+        <v>1832</v>
       </c>
       <c r="L8" s="2">
         <v>57</v>
@@ -55359,22 +55462,22 @@
         <v>5</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>1825</v>
+        <v>1833</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>1826</v>
+        <v>1834</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>1809</v>
+        <v>1817</v>
       </c>
       <c r="T8" s="2">
         <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>1827</v>
+        <v>1835</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:22">
@@ -55385,10 +55488,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F9" s="2">
         <v>1000</v>
@@ -55403,16 +55506,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>1829</v>
+        <v>1837</v>
       </c>
       <c r="T9" s="2">
         <v>1000</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:22">
@@ -55423,10 +55526,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F10" s="2">
         <v>5800</v>
@@ -55441,16 +55544,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>1831</v>
+        <v>1839</v>
       </c>
       <c r="T10" s="2">
         <v>5800</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:22">
@@ -55461,10 +55564,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F11" s="2">
         <v>8800</v>
@@ -55479,16 +55582,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>1832</v>
+        <v>1840</v>
       </c>
       <c r="T11" s="2">
         <v>8800</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:22">
@@ -55499,10 +55602,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1828</v>
+        <v>1836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>1740</v>
+        <v>1748</v>
       </c>
       <c r="F12" s="2">
         <v>18800</v>
@@ -55517,16 +55620,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>1833</v>
+        <v>1841</v>
       </c>
       <c r="T12" s="2">
         <v>18800</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:23">
@@ -55537,7 +55640,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -55561,16 +55664,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="T13" s="2">
         <v>70000</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W13" s="2">
         <v>7</v>
@@ -55584,7 +55687,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
@@ -55608,16 +55711,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>1837</v>
+        <v>1845</v>
       </c>
       <c r="T14" s="2">
         <v>180000</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W14" s="2">
         <v>6</v>
@@ -55631,10 +55734,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1834</v>
+        <v>1842</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F15" s="2">
         <v>1500</v>
@@ -55655,16 +55758,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>1838</v>
+        <v>1846</v>
       </c>
       <c r="T15" s="2">
         <v>1500</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>1836</v>
+        <v>1844</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
       <c r="W15" s="2">
         <v>3</v>
@@ -55678,10 +55781,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F16" s="3">
         <v>200</v>
@@ -55697,13 +55800,13 @@
         <v>0</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T16" s="3">
         <v>200</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:22">
@@ -55714,10 +55817,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1762</v>
+        <v>1770</v>
       </c>
       <c r="F17" s="3">
         <v>2000</v>
@@ -55733,13 +55836,13 @@
         <v>0</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T17" s="3">
         <v>2000</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:22">
@@ -55750,7 +55853,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>14</v>
@@ -55769,13 +55872,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>1840</v>
+        <v>1848</v>
       </c>
       <c r="T18" s="3">
         <v>20000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:22">
@@ -55786,7 +55889,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1839</v>
+        <v>1847</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -55805,13 +55908,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>1841</v>
+        <v>1849</v>
       </c>
       <c r="T19" s="3">
         <v>200000</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:22">
@@ -55822,7 +55925,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>1842</v>
+        <v>1850</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>14</v>
@@ -55840,16 +55943,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="T20" s="4">
         <v>300000</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1844</v>
+        <v>1852</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:22">
@@ -55860,7 +55963,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>1845</v>
+        <v>1853</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>14</v>
@@ -55878,16 +55981,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>1846</v>
+        <v>1854</v>
       </c>
       <c r="T21" s="4">
         <v>300000</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1847</v>
+        <v>1855</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1745</v>
+        <v>1753</v>
       </c>
     </row>
   </sheetData>
